--- a/AAII_Financials/Quarterly/CVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>CVT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,165 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>144700</v>
+      </c>
+      <c r="F8" s="3">
         <v>134100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>240100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>115500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>118500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F9" s="3">
         <v>50600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>89800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>41900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>39900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>93700</v>
+      </c>
+      <c r="F10" s="3">
         <v>83500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>150300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>73600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>78600</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +835,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F12" s="3">
         <v>25700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>46300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>18900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,16 +901,22 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -891,43 +930,55 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E15" s="3">
         <v>12800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G15" s="3">
         <v>26000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>13400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>13500</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +987,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>156500</v>
+      </c>
+      <c r="F17" s="3">
         <v>151600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>262400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>119700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>123600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-22300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,153 +1072,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>122900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>91600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F22" s="3">
         <v>8500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>17100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>8800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>9100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-24200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-35100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-13700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13700</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1278,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-26100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-38400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-16700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-26100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-38400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-16700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,66 +1488,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-26100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-38400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-16700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1593,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-26100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-38400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-16700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1702,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>126500</v>
+      </c>
+      <c r="F41" s="3">
         <v>115400</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,20 +1733,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>500</v>
+      </c>
+      <c r="F42" s="3">
         <v>2700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,20 +1768,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>112300</v>
+      </c>
+      <c r="F43" s="3">
         <v>82700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1803,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,20 +1838,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F45" s="3">
         <v>38200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,20 +1873,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>337900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>285200</v>
+      </c>
+      <c r="F46" s="3">
         <v>238900</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1908,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,20 +1943,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F48" s="3">
         <v>45100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,20 +1978,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1932400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1948100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1965600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +2013,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,20 +2083,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F52" s="3">
         <v>25300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2118,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2153,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2341000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2306100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2274900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,20 +2222,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,20 +2253,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,20 +2288,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>355900</v>
+      </c>
+      <c r="F59" s="3">
         <v>338400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,20 +2323,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>417100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>358600</v>
+      </c>
+      <c r="F60" s="3">
         <v>345200</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,20 +2358,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>262600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>262300</v>
+      </c>
+      <c r="F61" s="3">
         <v>750500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2108,20 +2393,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F62" s="3">
         <v>57900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2533,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>732600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>676600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1153700</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,8 +2723,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2411,8 +2758,14 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2863,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1608400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1629500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1121200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2933,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-26100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-38400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-16700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,26 +3027,28 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="D83" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>127700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +3058,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,26 +3233,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D89" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>600</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>29100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,26 +3287,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3318,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,26 +3388,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="D94" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-42600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3423,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,26 +3578,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>5500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,26 +3613,32 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3151,26 +3648,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="D102" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>-7300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3681,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>CVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,50 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,32 +718,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E8" s="3">
         <v>137400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>144700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>240100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>115500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>118500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,32 +756,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E9" s="3">
         <v>56200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>51000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>89800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,32 +794,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E10" s="3">
         <v>81200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>93700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>83500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>150300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,32 +850,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E12" s="3">
         <v>31400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>46300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,20 +924,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>7200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -930,11 +950,11 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,23 +974,23 @@
         <v>12200</v>
       </c>
       <c r="E15" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="F15" s="3">
         <v>12800</v>
       </c>
       <c r="G15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H15" s="3">
         <v>26000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,32 +1015,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E17" s="3">
         <v>164800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>156500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>262400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>119700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,32 +1051,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,32 +1107,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,32 +1143,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>122900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>91600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1153,23 +1193,23 @@
         <v>2900</v>
       </c>
       <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
         <v>7100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1179,31 +1219,34 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-13700</v>
       </c>
       <c r="I23" s="3">
         <v>-13700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-13700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1214,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1223,23 +1269,23 @@
         <v>1300</v>
       </c>
       <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,32 +1333,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,32 +1371,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,32 +1561,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,32 +1599,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,32 +1675,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,37 +1713,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,23 +1790,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E41" s="3">
         <v>188100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115400</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,23 +1826,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1774,23 +1864,26 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E43" s="3">
         <v>92900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,23 +1940,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E45" s="3">
         <v>52000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,23 +1978,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>247200</v>
+      </c>
+      <c r="E46" s="3">
         <v>337900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>285200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>238900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,23 +2054,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E48" s="3">
         <v>41000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,23 +2092,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1922200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1932400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1948100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1965600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,23 +2206,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E52" s="3">
         <v>29700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,23 +2282,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2238200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2341000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2306100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2274900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,23 +2354,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,23 +2390,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,23 +2428,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E59" s="3">
         <v>415000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>355900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>338400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,23 +2466,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E60" s="3">
         <v>417100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>358600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>345200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,23 +2504,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E61" s="3">
         <v>262600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>262300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>750500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2399,23 +2542,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E62" s="3">
         <v>52800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>57900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,23 +2694,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>648400</v>
+      </c>
+      <c r="E66" s="3">
         <v>732600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>676600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1153700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,8 +2900,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,23 +3052,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1589700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1608400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1629500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1121200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,37 +3128,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,32 +3171,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,29 +3227,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E83" s="3">
         <v>30200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>127700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,29 +3453,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E89" s="3">
         <v>79900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>29100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,29 +3509,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,29 +3621,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-42600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,29 +3827,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21800</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>5500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,29 +3865,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3654,29 +3903,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="E102" s="3">
         <v>61500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>-7300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,35 +722,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E8" s="3">
         <v>161000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>137400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>144700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>134100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>240100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>115500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>118500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,35 +763,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E9" s="3">
         <v>65600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>56200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>89800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,35 +804,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E10" s="3">
         <v>95400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>81200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>93700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>83500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>150300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>78600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,35 +864,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E12" s="3">
         <v>33100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>46300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,23 +944,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>7200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -953,11 +973,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,23 +1000,23 @@
         <v>12200</v>
       </c>
       <c r="F15" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="G15" s="3">
         <v>12800</v>
       </c>
       <c r="H15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I15" s="3">
         <v>26000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,35 +1042,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E17" s="3">
         <v>188900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>164800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>156500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>151600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>262400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>119700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>123600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,35 +1081,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,35 +1141,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,35 +1180,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>122900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>91600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,35 +1221,38 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
         <v>2900</v>
       </c>
       <c r="F22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G22" s="3">
         <v>7100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,34 +1262,37 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-13700</v>
       </c>
       <c r="J23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>-13700</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1260,35 +1303,38 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="3">
         <v>1300</v>
       </c>
       <c r="F24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,35 +1385,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,35 +1426,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-38400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,35 +1631,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,35 +1672,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-38400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,35 +1754,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-38400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1877,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E41" s="3">
         <v>107900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>115400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,26 +1916,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E42" s="3">
         <v>15500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,26 +1957,29 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E43" s="3">
         <v>79100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>92900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>112300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,26 +2039,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E45" s="3">
         <v>44700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>52000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,26 +2080,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E46" s="3">
         <v>247200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>337900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>285200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>238900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,26 +2162,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E48" s="3">
         <v>37900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>41000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,26 +2203,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1905700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1922200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1932400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1948100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1965600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,26 +2326,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E52" s="3">
         <v>30900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2408,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2205200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2238200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2341000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2306100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2274900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2485,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,26 +2524,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,26 +2565,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E59" s="3">
         <v>401000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>415000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>355900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>338400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2606,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>401400</v>
+      </c>
+      <c r="E60" s="3">
         <v>403700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>417100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>358600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>345200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,26 +2647,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E61" s="3">
         <v>195000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>262600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>262300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>750500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2545,26 +2688,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E62" s="3">
         <v>49700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>57900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2852,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>613400</v>
+      </c>
+      <c r="E66" s="3">
         <v>648400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>732600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>676600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1153700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,8 +3074,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3238,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1591800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1589700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1608400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1629500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1121200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,35 +3366,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-38400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,32 +3426,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E83" s="3">
         <v>30800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>127700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E89" s="3">
         <v>27700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>79900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>29100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,32 +3730,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,32 +3851,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-42600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,32 +4073,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-73200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21800</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>5500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,32 +4114,35 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-79500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>61500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>-7300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,216 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>170900</v>
+      </c>
+      <c r="F8" s="3">
         <v>161300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>161000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>137400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>144700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>134100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>240100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>115500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>118500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F9" s="3">
         <v>63000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>65600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>56200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>51000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>50600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>89800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>41900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>39900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>107800</v>
+      </c>
+      <c r="F10" s="3">
         <v>98300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>95400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>81200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>93700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>83500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>150300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>73600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>78600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,49 +890,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F12" s="3">
         <v>34200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>33100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>31400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>24600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>25700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>46300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>18900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,54 +980,66 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>7200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="E15" s="3">
         <v>12200</v>
@@ -1003,34 +1048,40 @@
         <v>12200</v>
       </c>
       <c r="G15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I15" s="3">
         <v>12800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>12800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>26000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>13400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>13500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,90 +1094,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>193100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>179200</v>
+      </c>
+      <c r="F17" s="3">
         <v>177000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>188900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>164800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>156500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>151600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>262400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>119700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>123600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-27900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-27400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-11800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-17500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-22300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,213 +1207,245 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F21" s="3">
         <v>15700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>18600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>122900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>91600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>7100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>17100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-30200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-30100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-19800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-24200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-35100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,90 +1485,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-18200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-31500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-31400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-26100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-38400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-16700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-18200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-31500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-31400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-26100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-38400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-16700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,90 +1767,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-18200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-31500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-31400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-26100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-38400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-16700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,95 +1908,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-18200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-31500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-31400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-26100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-38400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-16700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +2049,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>99100</v>
+      </c>
+      <c r="F41" s="3">
         <v>107700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>107900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>188100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>126500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>115400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,32 +2092,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F42" s="3">
         <v>2900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>15500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,32 +2139,38 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>120400</v>
+      </c>
+      <c r="F43" s="3">
         <v>76000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>79100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>92900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>112300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>82700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2186,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,32 +2233,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F45" s="3">
         <v>46500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>44700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>52000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>45900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>38200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,32 +2280,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>307900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>305700</v>
+      </c>
+      <c r="F46" s="3">
         <v>233000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>247200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>337900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>285200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>238900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2327,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,32 +2374,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F48" s="3">
         <v>36700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>37900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>41000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>43700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>45100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,32 +2421,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1874100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1890100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1905700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1922200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1932400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1948100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1965600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2468,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,32 +2562,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29700</v>
+        <v>31800</v>
       </c>
       <c r="E52" s="3">
-        <v>30900</v>
+        <v>34500</v>
       </c>
       <c r="F52" s="3">
         <v>29700</v>
       </c>
       <c r="G52" s="3">
+        <v>30900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I52" s="3">
         <v>29100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>25300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,32 +2656,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2256800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2265900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2205200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2238200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2341000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2306100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2274900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,32 +2745,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>4100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>2700</v>
       </c>
       <c r="H57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,32 +2788,38 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,32 +2835,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>465900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>399600</v>
+      </c>
+      <c r="F59" s="3">
         <v>397300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>401000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>415000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>355900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>338400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,32 +2882,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>468700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>401700</v>
+      </c>
+      <c r="F60" s="3">
         <v>401400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>403700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>417100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>358600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>345200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,32 +2929,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>208000</v>
+      </c>
+      <c r="F61" s="3">
         <v>165000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>195000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>262600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>262300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>750500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2691,32 +2976,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F62" s="3">
         <v>47000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>49700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>52800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>55700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>57900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,32 +3164,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>658100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>655100</v>
+      </c>
+      <c r="F66" s="3">
         <v>613400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>648400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>732600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>676600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1153700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,8 +3418,14 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,32 +3606,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1598700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1610900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1591800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1589700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1608400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1629500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1121200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,95 +3700,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-18200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-31500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-31400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-26100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-38400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-16700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,38 +3822,40 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30200</v>
+        <v>30600</v>
       </c>
       <c r="E83" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="F83" s="3">
         <v>30200</v>
       </c>
       <c r="G83" s="3">
+        <v>30800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>30200</v>
+      </c>
+      <c r="I83" s="3">
         <v>31200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>127700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3865,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +4100,44 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F89" s="3">
         <v>33500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>27700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>79900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>29100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,38 +4170,40 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3000</v>
+        <v>-15100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1300</v>
+        <v>-13800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1400</v>
+        <v>-16400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-14400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-12600</v>
       </c>
       <c r="J91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +4213,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4307,44 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-17700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-10500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-42600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4561,44 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-23400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-73200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>21800</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>5500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,38 +4608,44 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4158,38 +4655,44 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-79500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>61500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>11100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-7300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
